--- a/data/pca/factorExposure/factorExposure_2009-04-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01752202507563259</v>
+        <v>0.01689948430870828</v>
       </c>
       <c r="C2">
-        <v>0.002044910164837415</v>
+        <v>0.001399007271055872</v>
       </c>
       <c r="D2">
-        <v>-0.01063667831582263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01079391116026604</v>
+      </c>
+      <c r="E2">
+        <v>-0.001521880808675169</v>
+      </c>
+      <c r="F2">
+        <v>0.01934304764193112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08594516033042018</v>
+        <v>0.08939486119972181</v>
       </c>
       <c r="C4">
-        <v>0.01996297111562669</v>
+        <v>0.01565070004735019</v>
       </c>
       <c r="D4">
-        <v>-0.08132558225833127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08434131940294362</v>
+      </c>
+      <c r="E4">
+        <v>-0.0345187546105151</v>
+      </c>
+      <c r="F4">
+        <v>-0.04317586109444061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0001108583741129779</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9.584864836139447e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002729916725151316</v>
+      </c>
+      <c r="E5">
+        <v>9.310974940344866e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0006772947676190833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.158869903050127</v>
+        <v>0.1657042736028818</v>
       </c>
       <c r="C6">
-        <v>0.03574523268123396</v>
+        <v>0.03429079655735708</v>
       </c>
       <c r="D6">
-        <v>0.02673103476271106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01701457869850525</v>
+      </c>
+      <c r="E6">
+        <v>-0.01801371855209193</v>
+      </c>
+      <c r="F6">
+        <v>-0.0557464508828299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0566124424401232</v>
+        <v>0.06077666391677359</v>
       </c>
       <c r="C7">
-        <v>0.001986407812811859</v>
+        <v>-0.001132294290782618</v>
       </c>
       <c r="D7">
-        <v>-0.04829927394985817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0532124038254499</v>
+      </c>
+      <c r="E7">
+        <v>-0.02143226157890039</v>
+      </c>
+      <c r="F7">
+        <v>-0.05106867736249963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05802025896989165</v>
+        <v>0.0547191508389783</v>
       </c>
       <c r="C8">
-        <v>-0.009839597903696696</v>
+        <v>-0.01160037688727355</v>
       </c>
       <c r="D8">
-        <v>-0.02868272843864608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0312496896607989</v>
+      </c>
+      <c r="E8">
+        <v>-0.01443123548985938</v>
+      </c>
+      <c r="F8">
+        <v>0.03530264378202364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06733276545179279</v>
+        <v>0.0701562558255609</v>
       </c>
       <c r="C9">
-        <v>0.01587278594780492</v>
+        <v>0.01148226434787393</v>
       </c>
       <c r="D9">
-        <v>-0.08520953876092069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08846490733857695</v>
+      </c>
+      <c r="E9">
+        <v>-0.03296985586520935</v>
+      </c>
+      <c r="F9">
+        <v>-0.06455582393503784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09136752451822333</v>
+        <v>0.08932206101944835</v>
       </c>
       <c r="C10">
-        <v>0.0220254250284062</v>
+        <v>0.02451033665530397</v>
       </c>
       <c r="D10">
-        <v>0.1651288747675863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1552103988913771</v>
+      </c>
+      <c r="E10">
+        <v>0.03844187814106998</v>
+      </c>
+      <c r="F10">
+        <v>0.0768793759457547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08812370729068779</v>
+        <v>0.08530753676238675</v>
       </c>
       <c r="C11">
-        <v>0.01740628058167537</v>
+        <v>0.01247664269209413</v>
       </c>
       <c r="D11">
-        <v>-0.118870705240771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1236733941325345</v>
+      </c>
+      <c r="E11">
+        <v>-0.06064333448893194</v>
+      </c>
+      <c r="F11">
+        <v>-0.01475619923475662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09315563943137962</v>
+        <v>0.08843583032331453</v>
       </c>
       <c r="C12">
-        <v>0.01543117897028234</v>
+        <v>0.009950838393382209</v>
       </c>
       <c r="D12">
-        <v>-0.1244954556296727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1369533983489582</v>
+      </c>
+      <c r="E12">
+        <v>-0.06355587899788262</v>
+      </c>
+      <c r="F12">
+        <v>-0.01825143892317749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04477311153853112</v>
+        <v>0.04503304329710651</v>
       </c>
       <c r="C13">
-        <v>0.007485029502989136</v>
+        <v>0.004084721566197442</v>
       </c>
       <c r="D13">
-        <v>-0.04967529483279106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0574655075526737</v>
+      </c>
+      <c r="E13">
+        <v>-0.001498102089947271</v>
+      </c>
+      <c r="F13">
+        <v>-0.01487952742777379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0179588879072826</v>
+        <v>0.02118675066513423</v>
       </c>
       <c r="C14">
-        <v>0.01451088089503543</v>
+        <v>0.01356928411558624</v>
       </c>
       <c r="D14">
-        <v>-0.0314033095535711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03438750673912756</v>
+      </c>
+      <c r="E14">
+        <v>-0.02403775469943262</v>
+      </c>
+      <c r="F14">
+        <v>-0.02131314806005641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03422530376071863</v>
+        <v>0.03490958202451909</v>
       </c>
       <c r="C15">
-        <v>0.008494903893962713</v>
+        <v>0.006672281650540777</v>
       </c>
       <c r="D15">
-        <v>-0.05087470095474666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05082150394289812</v>
+      </c>
+      <c r="E15">
+        <v>-0.01539165328942192</v>
+      </c>
+      <c r="F15">
+        <v>-0.03075714366278891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06962427350097108</v>
+        <v>0.06852520278326633</v>
       </c>
       <c r="C16">
-        <v>0.006450503916220424</v>
+        <v>0.001505073070837927</v>
       </c>
       <c r="D16">
-        <v>-0.1196506894769662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1315874143135985</v>
+      </c>
+      <c r="E16">
+        <v>-0.07436120185778429</v>
+      </c>
+      <c r="F16">
+        <v>-0.01548665927951583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002292992362672028</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001079656044829965</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0019337087096065</v>
+      </c>
+      <c r="E17">
+        <v>-0.004726304091671768</v>
+      </c>
+      <c r="F17">
+        <v>0.004108992720491015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02900243788042169</v>
+        <v>0.04584072245726118</v>
       </c>
       <c r="C18">
-        <v>-0.0002375977805612991</v>
+        <v>-0.0002016135782350607</v>
       </c>
       <c r="D18">
-        <v>-0.02213512929182162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02096780282650345</v>
+      </c>
+      <c r="E18">
+        <v>0.004062232713027208</v>
+      </c>
+      <c r="F18">
+        <v>0.01581853197665193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06265377632317513</v>
+        <v>0.0617938790950843</v>
       </c>
       <c r="C20">
-        <v>0.005396925194454983</v>
+        <v>0.002378860812762656</v>
       </c>
       <c r="D20">
-        <v>-0.08020455547503011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08288292200842347</v>
+      </c>
+      <c r="E20">
+        <v>-0.06899159755264925</v>
+      </c>
+      <c r="F20">
+        <v>-0.03471305804873511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04024151705780637</v>
+        <v>0.04250248634660145</v>
       </c>
       <c r="C21">
-        <v>0.009891659966004744</v>
+        <v>0.007347567966358393</v>
       </c>
       <c r="D21">
-        <v>-0.04034037597976257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03945331358909941</v>
+      </c>
+      <c r="E21">
+        <v>-0.002271188031355931</v>
+      </c>
+      <c r="F21">
+        <v>0.01964218953293116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04469441960456602</v>
+        <v>0.04455323161014209</v>
       </c>
       <c r="C22">
-        <v>0.00374898230600492</v>
+        <v>0.002452193286959048</v>
       </c>
       <c r="D22">
-        <v>-0.003404877072868167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01148186735841068</v>
+      </c>
+      <c r="E22">
+        <v>-0.03072034051576416</v>
+      </c>
+      <c r="F22">
+        <v>0.1006152293138974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04470300163036051</v>
+        <v>0.04456055623183788</v>
       </c>
       <c r="C23">
-        <v>0.003751249803310124</v>
+        <v>0.002454359109468199</v>
       </c>
       <c r="D23">
-        <v>-0.003395980546329047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01147503623520829</v>
+      </c>
+      <c r="E23">
+        <v>-0.03072776640283412</v>
+      </c>
+      <c r="F23">
+        <v>0.1006563194142833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07747349989769868</v>
+        <v>0.07505798302698234</v>
       </c>
       <c r="C24">
-        <v>0.007357648175703358</v>
+        <v>0.002673814629345636</v>
       </c>
       <c r="D24">
-        <v>-0.1223779047368011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1257908270276758</v>
+      </c>
+      <c r="E24">
+        <v>-0.05885648738546988</v>
+      </c>
+      <c r="F24">
+        <v>-0.02574939500404401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08212481140448033</v>
+        <v>0.07953909860901912</v>
       </c>
       <c r="C25">
-        <v>0.009842191790989824</v>
+        <v>0.00552304367490123</v>
       </c>
       <c r="D25">
-        <v>-0.1094876506196367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1137756731807493</v>
+      </c>
+      <c r="E25">
+        <v>-0.04567044762874741</v>
+      </c>
+      <c r="F25">
+        <v>-0.02080839494719514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05599906041522854</v>
+        <v>0.06102487281168163</v>
       </c>
       <c r="C26">
-        <v>0.01866862712676994</v>
+        <v>0.01593649917846462</v>
       </c>
       <c r="D26">
-        <v>-0.04574778413446846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05228964187376411</v>
+      </c>
+      <c r="E26">
+        <v>-0.03141285612904177</v>
+      </c>
+      <c r="F26">
+        <v>0.008800509285313335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1468424686278686</v>
+        <v>0.1522067335700455</v>
       </c>
       <c r="C28">
-        <v>0.02475782631084367</v>
+        <v>0.02979531853274062</v>
       </c>
       <c r="D28">
-        <v>0.2492002426912296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2474816225185837</v>
+      </c>
+      <c r="E28">
+        <v>0.06215950981927647</v>
+      </c>
+      <c r="F28">
+        <v>-0.01773319551311542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02517088974518289</v>
+        <v>0.02736776006214834</v>
       </c>
       <c r="C29">
-        <v>0.009722019073471691</v>
+        <v>0.008972351208950569</v>
       </c>
       <c r="D29">
-        <v>-0.03036239847250935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0323450502906784</v>
+      </c>
+      <c r="E29">
+        <v>-0.018383866689487</v>
+      </c>
+      <c r="F29">
+        <v>0.01899287978854235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05265733082837628</v>
+        <v>0.05155060194700219</v>
       </c>
       <c r="C30">
-        <v>0.006105886573882018</v>
+        <v>0.002344852366838897</v>
       </c>
       <c r="D30">
-        <v>-0.0805334481025604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08552424695590381</v>
+      </c>
+      <c r="E30">
+        <v>-0.02238868458143686</v>
+      </c>
+      <c r="F30">
+        <v>-0.1106347123292159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05097608110200799</v>
+        <v>0.05157393549674297</v>
       </c>
       <c r="C31">
-        <v>0.01880244598307597</v>
+        <v>0.01689002509383626</v>
       </c>
       <c r="D31">
-        <v>-0.0255635427559836</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02788006880594339</v>
+      </c>
+      <c r="E31">
+        <v>-0.0310582800922006</v>
+      </c>
+      <c r="F31">
+        <v>0.01108017635139962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0452909571615629</v>
+        <v>0.05008929010311543</v>
       </c>
       <c r="C32">
-        <v>0.001948899636147561</v>
+        <v>-0.001035527679182891</v>
       </c>
       <c r="D32">
-        <v>-0.03227224907724864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03689974069734574</v>
+      </c>
+      <c r="E32">
+        <v>-0.03288220286764057</v>
+      </c>
+      <c r="F32">
+        <v>0.002101283471891314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08767951855717146</v>
+        <v>0.08866077931909448</v>
       </c>
       <c r="C33">
-        <v>0.01385925998759617</v>
+        <v>0.008579898038880786</v>
       </c>
       <c r="D33">
-        <v>-0.09365258170606744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1065482439062715</v>
+      </c>
+      <c r="E33">
+        <v>-0.06044363527576548</v>
+      </c>
+      <c r="F33">
+        <v>-0.02664714872102961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06512856292167379</v>
+        <v>0.06485524611522685</v>
       </c>
       <c r="C34">
-        <v>0.01550625298233069</v>
+        <v>0.01097925957595384</v>
       </c>
       <c r="D34">
-        <v>-0.1011316972664092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1124332307532834</v>
+      </c>
+      <c r="E34">
+        <v>-0.0462058746634229</v>
+      </c>
+      <c r="F34">
+        <v>-0.03987987024669463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02684773294182284</v>
+        <v>0.02828810351780667</v>
       </c>
       <c r="C35">
-        <v>0.005092526433778016</v>
+        <v>0.004497520450715371</v>
       </c>
       <c r="D35">
-        <v>-0.008880404356656517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01172453872865856</v>
+      </c>
+      <c r="E35">
+        <v>-0.01826668657239075</v>
+      </c>
+      <c r="F35">
+        <v>0.002548610739202371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02322632878249832</v>
+        <v>0.02789077523937626</v>
       </c>
       <c r="C36">
-        <v>0.008308377907211145</v>
+        <v>0.007386402692711236</v>
       </c>
       <c r="D36">
-        <v>-0.039487542653482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04247447260927971</v>
+      </c>
+      <c r="E36">
+        <v>-0.02094637762981971</v>
+      </c>
+      <c r="F36">
+        <v>-0.01965200065137908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002922155361621749</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008988824347614533</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003066391408493225</v>
+      </c>
+      <c r="E37">
+        <v>-0.001205523171375153</v>
+      </c>
+      <c r="F37">
+        <v>0.0004255997626324425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1033236295650294</v>
+        <v>0.09437860270937197</v>
       </c>
       <c r="C39">
-        <v>0.02222110108631231</v>
+        <v>0.01629254613790511</v>
       </c>
       <c r="D39">
-        <v>-0.1555510463663898</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1544995303991485</v>
+      </c>
+      <c r="E39">
+        <v>-0.07422662788744291</v>
+      </c>
+      <c r="F39">
+        <v>-0.005393361554889214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04327255091840233</v>
+        <v>0.04831381027963268</v>
       </c>
       <c r="C40">
-        <v>0.01177248893626283</v>
+        <v>0.01022374332559398</v>
       </c>
       <c r="D40">
-        <v>-0.03250380932209932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03907792800503831</v>
+      </c>
+      <c r="E40">
+        <v>-0.004779423813494717</v>
+      </c>
+      <c r="F40">
+        <v>0.02467329247096298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02576279525639997</v>
+        <v>0.02812568650375593</v>
       </c>
       <c r="C41">
-        <v>0.008276278835045503</v>
+        <v>0.007872667722857472</v>
       </c>
       <c r="D41">
-        <v>-0.01171320456177837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01303660555048821</v>
+      </c>
+      <c r="E41">
+        <v>-0.01296054781568974</v>
+      </c>
+      <c r="F41">
+        <v>0.01285544502915889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04052266222677613</v>
+        <v>0.03936633950209623</v>
       </c>
       <c r="C43">
-        <v>0.009105723320728044</v>
+        <v>0.008210124411806709</v>
       </c>
       <c r="D43">
-        <v>-0.02221239139569345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02292733396960294</v>
+      </c>
+      <c r="E43">
+        <v>-0.02809537223502119</v>
+      </c>
+      <c r="F43">
+        <v>0.02452370775933685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06439730938915957</v>
+        <v>0.0715661432243738</v>
       </c>
       <c r="C44">
-        <v>0.0231528816335511</v>
+        <v>0.01946464073158601</v>
       </c>
       <c r="D44">
-        <v>-0.07845654030330493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08705478571330526</v>
+      </c>
+      <c r="E44">
+        <v>-0.07823524432786244</v>
+      </c>
+      <c r="F44">
+        <v>-0.2153640765588983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001189421543473116</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.933969436059787e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-8.506889164799337e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0002628068858266905</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001531853776283501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0227602203979524</v>
+        <v>0.02523318521414542</v>
       </c>
       <c r="C46">
-        <v>0.005188341558184579</v>
+        <v>0.004290157071632313</v>
       </c>
       <c r="D46">
-        <v>-0.01487902676186355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0181302528629262</v>
+      </c>
+      <c r="E46">
+        <v>-0.03612189790275989</v>
+      </c>
+      <c r="F46">
+        <v>0.02334916109170379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05431907959848375</v>
+        <v>0.0530816838637644</v>
       </c>
       <c r="C47">
-        <v>0.007318859600166105</v>
+        <v>0.00578151738051566</v>
       </c>
       <c r="D47">
-        <v>-0.009837178083289959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0131725937869481</v>
+      </c>
+      <c r="E47">
+        <v>-0.02477741557533567</v>
+      </c>
+      <c r="F47">
+        <v>0.04596895639116458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04775464199466794</v>
+        <v>0.05155906975544287</v>
       </c>
       <c r="C48">
-        <v>0.005640507076445657</v>
+        <v>0.003253872547579167</v>
       </c>
       <c r="D48">
-        <v>-0.05203246525781219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05437413424640662</v>
+      </c>
+      <c r="E48">
+        <v>-0.0008338381703527411</v>
+      </c>
+      <c r="F48">
+        <v>-0.01701450550952731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1955620968281821</v>
+        <v>0.1983369291684881</v>
       </c>
       <c r="C49">
-        <v>0.02800924132619596</v>
+        <v>0.02451019599700827</v>
       </c>
       <c r="D49">
-        <v>0.01027558713913516</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005042297735805805</v>
+      </c>
+      <c r="E49">
+        <v>-0.02145178433744641</v>
+      </c>
+      <c r="F49">
+        <v>-0.06022749364403458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04934973020997578</v>
+        <v>0.05211363463389057</v>
       </c>
       <c r="C50">
-        <v>0.01453519110880782</v>
+        <v>0.01312801220872271</v>
       </c>
       <c r="D50">
-        <v>-0.02454261045591713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02686257883678038</v>
+      </c>
+      <c r="E50">
+        <v>-0.03207643445000135</v>
+      </c>
+      <c r="F50">
+        <v>-0.007020577497529329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.151978406113486</v>
+        <v>0.1455037030299524</v>
       </c>
       <c r="C52">
-        <v>0.02484289963847858</v>
+        <v>0.0213084713638489</v>
       </c>
       <c r="D52">
-        <v>-0.04368455914057155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04594546233818108</v>
+      </c>
+      <c r="E52">
+        <v>-0.03341478434084029</v>
+      </c>
+      <c r="F52">
+        <v>-0.03917380176500486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749550304247196</v>
+        <v>0.1676971024824894</v>
       </c>
       <c r="C53">
-        <v>0.02749929194922937</v>
+        <v>0.02530605621110166</v>
       </c>
       <c r="D53">
-        <v>-0.004276449523107726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007316946134493078</v>
+      </c>
+      <c r="E53">
+        <v>-0.04041944780800406</v>
+      </c>
+      <c r="F53">
+        <v>-0.08584554765744037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01440051143650024</v>
+        <v>0.01802641274249884</v>
       </c>
       <c r="C54">
-        <v>0.01198493174809128</v>
+        <v>0.01130329159946656</v>
       </c>
       <c r="D54">
-        <v>-0.0284021703427695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02812859232369117</v>
+      </c>
+      <c r="E54">
+        <v>-0.02144513524666654</v>
+      </c>
+      <c r="F54">
+        <v>0.003682008986921712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1188598702519679</v>
+        <v>0.1166088052678684</v>
       </c>
       <c r="C55">
-        <v>0.02400002148940496</v>
+        <v>0.02198094711884976</v>
       </c>
       <c r="D55">
-        <v>-0.003470121634514523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01138939239422689</v>
+      </c>
+      <c r="E55">
+        <v>-0.04041258461656028</v>
+      </c>
+      <c r="F55">
+        <v>-0.02966327935889579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1807041867867193</v>
+        <v>0.1747091098529877</v>
       </c>
       <c r="C56">
-        <v>0.02570977908593617</v>
+        <v>0.02376868391180668</v>
       </c>
       <c r="D56">
-        <v>0.004873161761311796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0005034818807116396</v>
+      </c>
+      <c r="E56">
+        <v>-0.03961269094800014</v>
+      </c>
+      <c r="F56">
+        <v>-0.04520266141572418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04543121232194669</v>
+        <v>0.04423032813144882</v>
       </c>
       <c r="C58">
-        <v>0.00430493058563514</v>
+        <v>0.0003404171171878292</v>
       </c>
       <c r="D58">
-        <v>-0.07260248270446015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.08100614003207228</v>
+      </c>
+      <c r="E58">
+        <v>-0.04004308908738187</v>
+      </c>
+      <c r="F58">
+        <v>0.04596379017726832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1686456042081768</v>
+        <v>0.1738005501233484</v>
       </c>
       <c r="C59">
-        <v>0.02535364324982316</v>
+        <v>0.02929478687250415</v>
       </c>
       <c r="D59">
-        <v>0.2128307182537038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2120166213744449</v>
+      </c>
+      <c r="E59">
+        <v>0.05726583946011733</v>
+      </c>
+      <c r="F59">
+        <v>0.06628878177793639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2283319231374828</v>
+        <v>0.2222911579860093</v>
       </c>
       <c r="C60">
-        <v>0.00832696171497801</v>
+        <v>0.003788726186877447</v>
       </c>
       <c r="D60">
-        <v>-0.02423025276455686</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02528665713826844</v>
+      </c>
+      <c r="E60">
+        <v>0.01108867115496419</v>
+      </c>
+      <c r="F60">
+        <v>0.008395798439461826</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07541574296849791</v>
+        <v>0.07145036082068952</v>
       </c>
       <c r="C61">
-        <v>0.01605320824935509</v>
+        <v>0.01106638373311152</v>
       </c>
       <c r="D61">
-        <v>-0.116355988658355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1197211682939947</v>
+      </c>
+      <c r="E61">
+        <v>-0.05014811908678678</v>
+      </c>
+      <c r="F61">
+        <v>0.005741714199613745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1715604753789285</v>
+        <v>0.1673174304614186</v>
       </c>
       <c r="C62">
-        <v>0.02855409693970684</v>
+        <v>0.02591590315912446</v>
       </c>
       <c r="D62">
-        <v>-0.001407186579612837</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007580636148491896</v>
+      </c>
+      <c r="E62">
+        <v>-0.04232138326625511</v>
+      </c>
+      <c r="F62">
+        <v>-0.02646712386987473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04266558407310535</v>
+        <v>0.04759200612102852</v>
       </c>
       <c r="C63">
-        <v>0.006003080293179887</v>
+        <v>0.003432095143483768</v>
       </c>
       <c r="D63">
-        <v>-0.06032819380375356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06856243763620734</v>
+      </c>
+      <c r="E63">
+        <v>-0.02921662202729203</v>
+      </c>
+      <c r="F63">
+        <v>0.004265818664656905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1142382714421825</v>
+        <v>0.111325583515335</v>
       </c>
       <c r="C64">
-        <v>0.01907464881073421</v>
+        <v>0.01553504831646592</v>
       </c>
       <c r="D64">
-        <v>-0.04340572735356365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04822386695364179</v>
+      </c>
+      <c r="E64">
+        <v>-0.03494303632512477</v>
+      </c>
+      <c r="F64">
+        <v>-0.01924895804213616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1502882396939806</v>
+        <v>0.1560236066066472</v>
       </c>
       <c r="C65">
-        <v>0.04181323680498821</v>
+        <v>0.04066321824018166</v>
       </c>
       <c r="D65">
-        <v>0.04928385502883768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03713316235056245</v>
+      </c>
+      <c r="E65">
+        <v>-0.01182428236645506</v>
+      </c>
+      <c r="F65">
+        <v>-0.05770853080347568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1255108863795003</v>
+        <v>0.1141506902825517</v>
       </c>
       <c r="C66">
-        <v>0.02130999651466149</v>
+        <v>0.01475909517288655</v>
       </c>
       <c r="D66">
-        <v>-0.1400686209428711</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1441304288920092</v>
+      </c>
+      <c r="E66">
+        <v>-0.07780239397104008</v>
+      </c>
+      <c r="F66">
+        <v>-0.007575432357224671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06035239058740178</v>
+        <v>0.05335695756970653</v>
       </c>
       <c r="C67">
-        <v>0.006565006801473939</v>
+        <v>0.004065482672928388</v>
       </c>
       <c r="D67">
-        <v>-0.05055123481548138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05429380365751751</v>
+      </c>
+      <c r="E67">
+        <v>-0.02354137084379496</v>
+      </c>
+      <c r="F67">
+        <v>0.08363303538770576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1177205113718798</v>
+        <v>0.1248166128488962</v>
       </c>
       <c r="C68">
-        <v>0.03349163524608104</v>
+        <v>0.03944764166044842</v>
       </c>
       <c r="D68">
-        <v>0.2534152192759386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2526166210448603</v>
+      </c>
+      <c r="E68">
+        <v>0.08951336945972281</v>
+      </c>
+      <c r="F68">
+        <v>-0.02865159108674272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04003495016798929</v>
+        <v>0.03918007177539876</v>
       </c>
       <c r="C69">
-        <v>0.003421207364857334</v>
+        <v>0.002447744693714156</v>
       </c>
       <c r="D69">
-        <v>-0.00891732196831929</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01009425859551248</v>
+      </c>
+      <c r="E69">
+        <v>-0.02953054701701922</v>
+      </c>
+      <c r="F69">
+        <v>0.02164881771972122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06871522862115396</v>
+        <v>0.06974691031609327</v>
       </c>
       <c r="C70">
-        <v>-0.02309375509397619</v>
+        <v>-0.0247670549927132</v>
       </c>
       <c r="D70">
-        <v>-0.03549001769574162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0351883248876095</v>
+      </c>
+      <c r="E70">
+        <v>0.03774011840019376</v>
+      </c>
+      <c r="F70">
+        <v>0.3750912480596184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1372243547769992</v>
+        <v>0.1451794061287309</v>
       </c>
       <c r="C71">
-        <v>0.03889340769510209</v>
+        <v>0.04468929571620501</v>
       </c>
       <c r="D71">
-        <v>0.2671360209054611</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2617675155521466</v>
+      </c>
+      <c r="E71">
+        <v>0.09902709568129309</v>
+      </c>
+      <c r="F71">
+        <v>-0.03107273575804863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381093338389137</v>
+        <v>0.1438739203372864</v>
       </c>
       <c r="C72">
-        <v>0.0322954870855772</v>
+        <v>0.0315786413787586</v>
       </c>
       <c r="D72">
-        <v>-0.002252665038240397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0002748684434749267</v>
+      </c>
+      <c r="E72">
+        <v>-0.04504189166058872</v>
+      </c>
+      <c r="F72">
+        <v>-0.03621586581347256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1969910555007132</v>
+        <v>0.2010783432087812</v>
       </c>
       <c r="C73">
-        <v>0.02164660296842873</v>
+        <v>0.01657370716735736</v>
       </c>
       <c r="D73">
-        <v>-0.009721909769145502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01631852161245068</v>
+      </c>
+      <c r="E73">
+        <v>-0.0649977325377111</v>
+      </c>
+      <c r="F73">
+        <v>-0.01878154443615093</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0883960875389731</v>
+        <v>0.08835444903700525</v>
       </c>
       <c r="C74">
-        <v>0.01631234736136501</v>
+        <v>0.01454830542978261</v>
       </c>
       <c r="D74">
-        <v>-0.00980328158091426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01584038913823237</v>
+      </c>
+      <c r="E74">
+        <v>-0.05039286867428577</v>
+      </c>
+      <c r="F74">
+        <v>-0.04743441719289983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.130292419505902</v>
+        <v>0.122479225945337</v>
       </c>
       <c r="C75">
-        <v>0.03458262971643539</v>
+        <v>0.03151038584644798</v>
       </c>
       <c r="D75">
-        <v>-0.02557614274882551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03160626409426248</v>
+      </c>
+      <c r="E75">
+        <v>-0.06160857506162644</v>
+      </c>
+      <c r="F75">
+        <v>-0.01355368407898647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07927920835976342</v>
+        <v>0.09257936266360264</v>
       </c>
       <c r="C77">
-        <v>0.01497792152545817</v>
+        <v>0.01081475482465507</v>
       </c>
       <c r="D77">
-        <v>-0.1225344685621599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1227182047151586</v>
+      </c>
+      <c r="E77">
+        <v>-0.053524062877251</v>
+      </c>
+      <c r="F77">
+        <v>-0.05148371147961767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09755637027560617</v>
+        <v>0.09888613220492068</v>
       </c>
       <c r="C78">
-        <v>0.04422019774760453</v>
+        <v>0.04077400469413553</v>
       </c>
       <c r="D78">
-        <v>-0.1169145666093206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1149280118512741</v>
+      </c>
+      <c r="E78">
+        <v>-0.07966008653902402</v>
+      </c>
+      <c r="F78">
+        <v>-0.04825709999765442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1683325766542778</v>
+        <v>0.1639343196931904</v>
       </c>
       <c r="C79">
-        <v>0.03200943411490735</v>
+        <v>0.02898122053040538</v>
       </c>
       <c r="D79">
-        <v>-0.01116154005624083</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01696991186228587</v>
+      </c>
+      <c r="E79">
+        <v>-0.05058255479068078</v>
+      </c>
+      <c r="F79">
+        <v>-0.008431901412609018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08043493766518561</v>
+        <v>0.07910448233727338</v>
       </c>
       <c r="C80">
-        <v>0.003960118626645486</v>
+        <v>0.001568646375119674</v>
       </c>
       <c r="D80">
-        <v>-0.05204146948536202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05193714908881565</v>
+      </c>
+      <c r="E80">
+        <v>-0.03515846491740246</v>
+      </c>
+      <c r="F80">
+        <v>0.04845169976761606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1178193942042929</v>
+        <v>0.1117669596539118</v>
       </c>
       <c r="C81">
-        <v>0.03644937182108425</v>
+        <v>0.03483680454476805</v>
       </c>
       <c r="D81">
-        <v>-0.004029264687518651</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01028595638111933</v>
+      </c>
+      <c r="E81">
+        <v>-0.05488412097269862</v>
+      </c>
+      <c r="F81">
+        <v>-0.001891952783843454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1637654685980082</v>
+        <v>0.1614895014784901</v>
       </c>
       <c r="C82">
-        <v>0.0318872214899387</v>
+        <v>0.02957933499424483</v>
       </c>
       <c r="D82">
-        <v>-0.004350056881679245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00474806941210262</v>
+      </c>
+      <c r="E82">
+        <v>-0.03904421357668419</v>
+      </c>
+      <c r="F82">
+        <v>-0.0884047528613028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05596058499997632</v>
+        <v>0.05176898736779981</v>
       </c>
       <c r="C83">
-        <v>0.005421360012325279</v>
+        <v>0.003526446616790645</v>
       </c>
       <c r="D83">
-        <v>-0.03727537456318699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03781214087803121</v>
+      </c>
+      <c r="E83">
+        <v>0.01007370332807798</v>
+      </c>
+      <c r="F83">
+        <v>0.03083835352059214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05772282012441544</v>
+        <v>0.05381435830224793</v>
       </c>
       <c r="C84">
-        <v>0.0140285561277438</v>
+        <v>0.01120914807776071</v>
       </c>
       <c r="D84">
-        <v>-0.07364178403156786</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07452124161940846</v>
+      </c>
+      <c r="E84">
+        <v>-0.02026941269264258</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009394830689165256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402799922137236</v>
+        <v>0.134752617415403</v>
       </c>
       <c r="C85">
-        <v>0.03533339740277766</v>
+        <v>0.03307113269498575</v>
       </c>
       <c r="D85">
-        <v>-0.006672802027562583</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01159137332823275</v>
+      </c>
+      <c r="E85">
+        <v>-0.04747426798278012</v>
+      </c>
+      <c r="F85">
+        <v>-0.05606325473233863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08175791630090649</v>
+        <v>0.07899844048939135</v>
       </c>
       <c r="C86">
-        <v>-0.004660313552788418</v>
+        <v>-0.007846833049786502</v>
       </c>
       <c r="D86">
-        <v>-0.02396367351252262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05118692797931131</v>
+      </c>
+      <c r="E86">
+        <v>-0.08630553540056653</v>
+      </c>
+      <c r="F86">
+        <v>0.7944260821201504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08883965324762859</v>
+        <v>0.08882102974911273</v>
       </c>
       <c r="C87">
-        <v>0.02650748937418871</v>
+        <v>0.02184293210548443</v>
       </c>
       <c r="D87">
-        <v>-0.08352423812689369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08761768401572304</v>
+      </c>
+      <c r="E87">
+        <v>0.05773156321796279</v>
+      </c>
+      <c r="F87">
+        <v>-0.08692580597206545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06169195148372478</v>
+        <v>0.06096641619743</v>
       </c>
       <c r="C88">
-        <v>0.006822093446874703</v>
+        <v>0.004304630543112234</v>
       </c>
       <c r="D88">
-        <v>-0.05388184763652563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05329295421968894</v>
+      </c>
+      <c r="E88">
+        <v>-0.03404476643670928</v>
+      </c>
+      <c r="F88">
+        <v>-0.000511019728106993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1276590397585587</v>
+        <v>0.1330986470928673</v>
       </c>
       <c r="C89">
-        <v>0.01417820283558443</v>
+        <v>0.01966824842097325</v>
       </c>
       <c r="D89">
-        <v>0.2299996438165554</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2344859966871752</v>
+      </c>
+      <c r="E89">
+        <v>0.09141421452116941</v>
+      </c>
+      <c r="F89">
+        <v>-0.01625513019938422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1484841103604355</v>
+        <v>0.1604896337383311</v>
       </c>
       <c r="C90">
-        <v>0.03542529687046383</v>
+        <v>0.04197290443176278</v>
       </c>
       <c r="D90">
-        <v>0.2555442059481649</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2597999312908464</v>
+      </c>
+      <c r="E90">
+        <v>0.119178903574202</v>
+      </c>
+      <c r="F90">
+        <v>-0.02271774517964455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1253124995939076</v>
+        <v>0.1210301339991612</v>
       </c>
       <c r="C91">
-        <v>0.02602563469087786</v>
+        <v>0.02483182736742614</v>
       </c>
       <c r="D91">
-        <v>0.02087551661529088</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01558733727176298</v>
+      </c>
+      <c r="E91">
+        <v>-0.05647842414813088</v>
+      </c>
+      <c r="F91">
+        <v>0.02531591061836908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1496378392413216</v>
+        <v>0.1536263642628936</v>
       </c>
       <c r="C92">
-        <v>0.02652697939945913</v>
+        <v>0.03248491675668911</v>
       </c>
       <c r="D92">
-        <v>0.2817395959967056</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2851877827013711</v>
+      </c>
+      <c r="E92">
+        <v>0.1099506563086051</v>
+      </c>
+      <c r="F92">
+        <v>-0.007476954257278702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1533109027908996</v>
+        <v>0.1631579633324172</v>
       </c>
       <c r="C93">
-        <v>0.0315618571144449</v>
+        <v>0.03672245123313694</v>
       </c>
       <c r="D93">
-        <v>0.2495846257514005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2528842659350528</v>
+      </c>
+      <c r="E93">
+        <v>0.07293678552397385</v>
+      </c>
+      <c r="F93">
+        <v>-0.02177472692726653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1294238833533199</v>
+        <v>0.1218586081048406</v>
       </c>
       <c r="C94">
-        <v>0.03065714452884911</v>
+        <v>0.02718670878823772</v>
       </c>
       <c r="D94">
-        <v>-0.03786427698180948</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04253370345324507</v>
+      </c>
+      <c r="E94">
+        <v>-0.06341075347333637</v>
+      </c>
+      <c r="F94">
+        <v>-0.01647117665313374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1264595625040205</v>
+        <v>0.129233553811768</v>
       </c>
       <c r="C95">
-        <v>0.01284547123372944</v>
+        <v>0.00753745925755112</v>
       </c>
       <c r="D95">
-        <v>-0.09477743855272631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1059466768203504</v>
+      </c>
+      <c r="E95">
+        <v>-0.0702321296874639</v>
+      </c>
+      <c r="F95">
+        <v>0.02615529820830179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1558727603637381</v>
+        <v>0.1420429734414629</v>
       </c>
       <c r="C96">
-        <v>-0.9818683129461691</v>
+        <v>-0.9829029229898987</v>
       </c>
       <c r="D96">
-        <v>0.03422288716178996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05690949873961913</v>
+      </c>
+      <c r="E96">
+        <v>-0.05193079735254095</v>
+      </c>
+      <c r="F96">
+        <v>-0.04566893040205706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1894773889867052</v>
+        <v>0.1934502102286044</v>
       </c>
       <c r="C97">
-        <v>0.002314416744138629</v>
+        <v>0.0001027956410000163</v>
       </c>
       <c r="D97">
-        <v>0.02027431589933792</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02583703755625169</v>
+      </c>
+      <c r="E97">
+        <v>-0.01322043095294034</v>
+      </c>
+      <c r="F97">
+        <v>0.1906871839187901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.194491661146318</v>
+        <v>0.2005598833341844</v>
       </c>
       <c r="C98">
-        <v>0.01616953001546119</v>
+        <v>0.0111716827079631</v>
       </c>
       <c r="D98">
-        <v>-0.01084263221819809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01288689199346919</v>
+      </c>
+      <c r="E98">
+        <v>0.09075602448087394</v>
+      </c>
+      <c r="F98">
+        <v>0.08934513339623329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05783143793008221</v>
+        <v>0.05739714991772107</v>
       </c>
       <c r="C99">
-        <v>-0.0002165975672985802</v>
+        <v>-0.002338648895728814</v>
       </c>
       <c r="D99">
-        <v>-0.04222744566810956</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04714113392535481</v>
+      </c>
+      <c r="E99">
+        <v>-0.0289941504521899</v>
+      </c>
+      <c r="F99">
+        <v>0.006938266036270788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1442407915626225</v>
+        <v>0.1335958094703545</v>
       </c>
       <c r="C100">
-        <v>-0.03627633632202012</v>
+        <v>-0.04579726353368412</v>
       </c>
       <c r="D100">
-        <v>-0.4246411807590813</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3810272647378679</v>
+      </c>
+      <c r="E100">
+        <v>0.8858612619096961</v>
+      </c>
+      <c r="F100">
+        <v>0.0087699233379064</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02517842542464344</v>
+        <v>0.02742490293999483</v>
       </c>
       <c r="C101">
-        <v>0.009733351682614041</v>
+        <v>0.009004484678761573</v>
       </c>
       <c r="D101">
-        <v>-0.02988174065637634</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03188610832456582</v>
+      </c>
+      <c r="E101">
+        <v>-0.01780102989545044</v>
+      </c>
+      <c r="F101">
+        <v>0.02154830710085342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
